--- a/cumulative elapsed time.xlsx
+++ b/cumulative elapsed time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Desktop\Dissertation\3 - Chemostat Paper\Chemostat Paper - Code and Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEE814-4BC1-4E7F-A07E-D1184557325A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C46E9-E216-4393-B5A3-73716F860196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" activeTab="2" xr2:uid="{AD692F3E-B5AF-41A4-82CD-2B05225DD147}"/>
   </bookViews>
@@ -491,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,8 +540,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -785,16 +798,20 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6889,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2562DC-B696-422D-99B4-66E45CD43FB5}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6899,7 +6916,7 @@
     <col min="2" max="2" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.7265625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.7265625" style="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6915,13 +6932,13 @@
       <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="105" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6938,9 +6955,15 @@
       <c r="D2" s="45">
         <v>234.6</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="E2" s="106">
+        <v>10</v>
+      </c>
+      <c r="F2" s="107">
+        <v>14</v>
+      </c>
+      <c r="G2" s="108">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
@@ -6955,9 +6978,15 @@
       <c r="D3" s="46">
         <v>280.53333333333336</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="110"/>
+      <c r="E3" s="109">
+        <v>13</v>
+      </c>
+      <c r="F3" s="109">
+        <v>-6</v>
+      </c>
+      <c r="G3" s="110">
+        <v>-3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
@@ -6972,9 +7001,15 @@
       <c r="D4" s="46">
         <v>332.9</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="110"/>
+      <c r="E4" s="109">
+        <v>-12</v>
+      </c>
+      <c r="F4" s="109">
+        <v>2</v>
+      </c>
+      <c r="G4" s="110">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -6989,9 +7024,15 @@
       <c r="D5" s="46">
         <v>375.65</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="110"/>
+      <c r="E5" s="109">
+        <v>4</v>
+      </c>
+      <c r="F5" s="109">
+        <v>15</v>
+      </c>
+      <c r="G5" s="110">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
@@ -7006,9 +7047,15 @@
       <c r="D6" s="46">
         <v>406.4</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="110"/>
+      <c r="E6" s="109">
+        <v>7</v>
+      </c>
+      <c r="F6" s="109">
+        <v>-11</v>
+      </c>
+      <c r="G6" s="110">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
@@ -7023,9 +7070,15 @@
       <c r="D7" s="46">
         <v>454.63333333333333</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="110"/>
+      <c r="E7" s="109">
+        <v>-7</v>
+      </c>
+      <c r="F7" s="109">
+        <v>11</v>
+      </c>
+      <c r="G7" s="110">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -7040,9 +7093,15 @@
       <c r="D8" s="46">
         <v>517.41666666666663</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="110"/>
+      <c r="E8" s="109">
+        <v>1</v>
+      </c>
+      <c r="F8" s="109">
+        <v>7</v>
+      </c>
+      <c r="G8" s="110">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -7057,9 +7116,15 @@
       <c r="D9" s="46">
         <v>542.43333333333328</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="110"/>
+      <c r="E9" s="109">
+        <v>-3</v>
+      </c>
+      <c r="F9" s="109">
+        <v>-5</v>
+      </c>
+      <c r="G9" s="110">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -7074,9 +7139,15 @@
       <c r="D10" s="46">
         <v>565.75</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="110"/>
+      <c r="E10" s="109">
+        <v>5</v>
+      </c>
+      <c r="F10" s="109">
+        <v>3</v>
+      </c>
+      <c r="G10" s="110">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -7091,9 +7162,15 @@
       <c r="D11" s="46">
         <v>589.1</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="110"/>
+      <c r="E11" s="109">
+        <v>6</v>
+      </c>
+      <c r="F11" s="109">
+        <v>12</v>
+      </c>
+      <c r="G11" s="110">
+        <v>-7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -7108,9 +7185,15 @@
       <c r="D12" s="46">
         <v>613.48333333333335</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="110"/>
+      <c r="E12" s="109">
+        <v>14</v>
+      </c>
+      <c r="F12" s="109">
+        <v>10</v>
+      </c>
+      <c r="G12" s="110">
+        <v>-3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
@@ -7125,9 +7208,15 @@
       <c r="D13" s="46">
         <v>637.48333333333335</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="110"/>
+      <c r="E13" s="109">
+        <v>-9</v>
+      </c>
+      <c r="F13" s="109">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="110">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -7142,9 +7231,15 @@
       <c r="D14" s="46">
         <v>661.6</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="110"/>
+      <c r="E14" s="109">
+        <v>8</v>
+      </c>
+      <c r="F14" s="109">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="110">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
@@ -7159,9 +7254,15 @@
       <c r="D15" s="46">
         <v>685.61666666666667</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="110"/>
+      <c r="E15" s="109">
+        <v>0</v>
+      </c>
+      <c r="F15" s="109">
+        <v>3</v>
+      </c>
+      <c r="G15" s="110">
+        <v>-11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
@@ -7176,9 +7277,15 @@
       <c r="D16" s="46">
         <v>709.41666666666663</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="110"/>
+      <c r="E16" s="109">
+        <v>4</v>
+      </c>
+      <c r="F16" s="109">
+        <v>-6</v>
+      </c>
+      <c r="G16" s="110">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
@@ -7193,9 +7300,15 @@
       <c r="D17" s="46">
         <v>733.51666666666665</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="110"/>
+      <c r="E17" s="109">
+        <v>6</v>
+      </c>
+      <c r="F17" s="109">
+        <v>2</v>
+      </c>
+      <c r="G17" s="110">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
@@ -7210,9 +7323,15 @@
       <c r="D18" s="46">
         <v>761.83333333333337</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="110"/>
+      <c r="E18" s="109">
+        <v>1</v>
+      </c>
+      <c r="F18" s="109">
+        <v>15</v>
+      </c>
+      <c r="G18" s="110">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
@@ -7227,9 +7346,15 @@
       <c r="D19" s="46">
         <v>786.55</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="110"/>
+      <c r="E19" s="109">
+        <v>-3</v>
+      </c>
+      <c r="F19" s="109">
+        <v>9</v>
+      </c>
+      <c r="G19" s="110">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
@@ -7244,9 +7369,15 @@
       <c r="D20" s="46">
         <v>806.23333333333335</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="110"/>
+      <c r="E20" s="109">
+        <v>5</v>
+      </c>
+      <c r="F20" s="109">
+        <v>13</v>
+      </c>
+      <c r="G20" s="110">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
@@ -7261,9 +7392,15 @@
       <c r="D21" s="46">
         <v>830.2</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="110"/>
+      <c r="E21" s="109">
+        <v>9</v>
+      </c>
+      <c r="F21" s="109">
+        <v>-11</v>
+      </c>
+      <c r="G21" s="110">
+        <v>-11</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
@@ -7278,9 +7415,15 @@
       <c r="D22" s="46">
         <v>853.81666666666672</v>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="110"/>
+      <c r="E22" s="109">
+        <v>7</v>
+      </c>
+      <c r="F22" s="109">
+        <v>1</v>
+      </c>
+      <c r="G22" s="110">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
@@ -7295,9 +7438,15 @@
       <c r="D23" s="46">
         <v>878.01666666666665</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="110"/>
+      <c r="E23" s="109">
+        <v>4</v>
+      </c>
+      <c r="F23" s="109">
+        <v>9</v>
+      </c>
+      <c r="G23" s="110">
+        <v>-7</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
@@ -7312,9 +7461,15 @@
       <c r="D24" s="46">
         <v>901.66666666666663</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="110"/>
+      <c r="E24" s="109">
+        <v>3</v>
+      </c>
+      <c r="F24" s="109">
+        <v>13</v>
+      </c>
+      <c r="G24" s="110">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
@@ -7329,9 +7484,15 @@
       <c r="D25" s="46">
         <v>930.43333333333328</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="110"/>
+      <c r="E25" s="109">
+        <v>-2</v>
+      </c>
+      <c r="F25" s="109">
+        <v>5</v>
+      </c>
+      <c r="G25" s="110">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
@@ -7346,9 +7507,15 @@
       <c r="D26" s="46">
         <v>973.76666666666665</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="110"/>
+      <c r="E26" s="109">
+        <v>6</v>
+      </c>
+      <c r="F26" s="109">
+        <v>8</v>
+      </c>
+      <c r="G26" s="110">
+        <v>-9</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
@@ -7363,9 +7530,15 @@
       <c r="D27" s="46">
         <v>979.41666666666663</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="110"/>
+      <c r="E27" s="111">
+        <v>2</v>
+      </c>
+      <c r="F27" s="109">
+        <v>9</v>
+      </c>
+      <c r="G27" s="110">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
@@ -7380,14 +7553,14 @@
       <c r="D28" s="46">
         <v>1026.75</v>
       </c>
-      <c r="E28" s="106">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="F28" s="106">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="G28" s="111">
-        <v>1.66E-2</v>
+      <c r="E28" s="116">
+        <v>6</v>
+      </c>
+      <c r="F28" s="116">
+        <v>2</v>
+      </c>
+      <c r="G28" s="117">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -7403,9 +7576,15 @@
       <c r="D29" s="46">
         <v>1028.3</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="112"/>
+      <c r="E29" s="111">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="111">
+        <v>4</v>
+      </c>
+      <c r="G29" s="112">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
@@ -7420,14 +7599,14 @@
       <c r="D30" s="46">
         <v>1072.9666666666667</v>
       </c>
-      <c r="E30" s="106">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="F30" s="106">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="G30" s="111">
-        <v>2.8500000000000001E-2</v>
+      <c r="E30" s="116">
+        <v>2</v>
+      </c>
+      <c r="F30" s="116">
+        <v>8</v>
+      </c>
+      <c r="G30" s="117">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -7443,9 +7622,15 @@
       <c r="D31" s="46">
         <v>1093.1500000000001</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="112"/>
+      <c r="E31" s="109">
+        <v>3</v>
+      </c>
+      <c r="F31" s="111">
+        <v>-2</v>
+      </c>
+      <c r="G31" s="112">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
@@ -7460,14 +7645,14 @@
       <c r="D32" s="46">
         <v>1144.4666666666667</v>
       </c>
-      <c r="E32" s="106">
-        <v>-9.2999999999999992E-3</v>
-      </c>
-      <c r="F32" s="106">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="G32" s="111">
-        <v>-1.23E-2</v>
+      <c r="E32" s="116">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="116">
+        <v>3</v>
+      </c>
+      <c r="G32" s="117">
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -7483,9 +7668,15 @@
       <c r="D33" s="46">
         <v>1150.4833333333333</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="112"/>
+      <c r="E33" s="111">
+        <v>5</v>
+      </c>
+      <c r="F33" s="111">
+        <v>4</v>
+      </c>
+      <c r="G33" s="112">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
@@ -7500,14 +7691,14 @@
       <c r="D34" s="46">
         <v>1195.2166666666667</v>
       </c>
-      <c r="E34" s="106">
-        <v>2.23E-2</v>
-      </c>
-      <c r="F34" s="106">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G34" s="111">
-        <v>4.7399999999999998E-2</v>
+      <c r="E34" s="116">
+        <v>2</v>
+      </c>
+      <c r="F34" s="116">
+        <v>8</v>
+      </c>
+      <c r="G34" s="117">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7523,9 +7714,15 @@
       <c r="D35" s="47">
         <v>1215.0166666666667</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="113"/>
+      <c r="E35" s="113">
+        <v>7</v>
+      </c>
+      <c r="F35" s="113">
+        <v>2</v>
+      </c>
+      <c r="G35" s="114">
+        <v>-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
